--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.343026333333333</v>
+        <v>1.680263333333333</v>
       </c>
       <c r="H2">
-        <v>4.029078999999999</v>
+        <v>5.040789999999999</v>
       </c>
       <c r="I2">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="J2">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N2">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q2">
-        <v>0.5815680070706667</v>
+        <v>2.29038879309</v>
       </c>
       <c r="R2">
-        <v>5.234112063636</v>
+        <v>20.61349913781</v>
       </c>
       <c r="S2">
-        <v>0.002634596020061498</v>
+        <v>0.01053790691155551</v>
       </c>
       <c r="T2">
-        <v>0.002634596020061498</v>
+        <v>0.01053790691155551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.343026333333333</v>
+        <v>1.680263333333333</v>
       </c>
       <c r="H3">
-        <v>4.029078999999999</v>
+        <v>5.040789999999999</v>
       </c>
       <c r="I3">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="J3">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.980769</v>
       </c>
       <c r="O3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q3">
-        <v>5.363496086861222</v>
+        <v>6.710282285278889</v>
       </c>
       <c r="R3">
-        <v>48.27146478175099</v>
+        <v>60.39254056751</v>
       </c>
       <c r="S3">
-        <v>0.02429749448432601</v>
+        <v>0.03087350509479651</v>
       </c>
       <c r="T3">
-        <v>0.02429749448432602</v>
+        <v>0.0308735050947965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.343026333333333</v>
+        <v>1.680263333333333</v>
       </c>
       <c r="H4">
-        <v>4.029078999999999</v>
+        <v>5.040789999999999</v>
       </c>
       <c r="I4">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="J4">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N4">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q4">
-        <v>6.984174312242553</v>
+        <v>5.387289423897777</v>
       </c>
       <c r="R4">
-        <v>62.85756881018298</v>
+        <v>48.48560481507999</v>
       </c>
       <c r="S4">
-        <v>0.03163942586720409</v>
+        <v>0.02478651424854903</v>
       </c>
       <c r="T4">
-        <v>0.03163942586720409</v>
+        <v>0.02478651424854903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.343026333333333</v>
+        <v>1.680263333333333</v>
       </c>
       <c r="H5">
-        <v>4.029078999999999</v>
+        <v>5.040789999999999</v>
       </c>
       <c r="I5">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="J5">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N5">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q5">
-        <v>5.424000766204222</v>
+        <v>4.646102864053334</v>
       </c>
       <c r="R5">
-        <v>48.816006895838</v>
+        <v>41.81492577648</v>
       </c>
       <c r="S5">
-        <v>0.0245715903517983</v>
+        <v>0.02137637052303793</v>
       </c>
       <c r="T5">
-        <v>0.02457159035179831</v>
+        <v>0.02137637052303792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.343026333333333</v>
+        <v>1.680263333333333</v>
       </c>
       <c r="H6">
-        <v>4.029078999999999</v>
+        <v>5.040789999999999</v>
       </c>
       <c r="I6">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="J6">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N6">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q6">
-        <v>5.341106047182778</v>
+        <v>8.230883076064444</v>
       </c>
       <c r="R6">
-        <v>48.069954424645</v>
+        <v>74.07794768458</v>
       </c>
       <c r="S6">
-        <v>0.02419606402613597</v>
+        <v>0.03786967519101746</v>
       </c>
       <c r="T6">
-        <v>0.02419606402613597</v>
+        <v>0.03786967519101746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.343026333333333</v>
+        <v>1.680263333333333</v>
       </c>
       <c r="H7">
-        <v>4.029078999999999</v>
+        <v>5.040789999999999</v>
       </c>
       <c r="I7">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="J7">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N7">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q7">
-        <v>7.178211175479001</v>
+        <v>10.51881420398555</v>
       </c>
       <c r="R7">
-        <v>64.603900579311</v>
+        <v>94.66932783586999</v>
       </c>
       <c r="S7">
-        <v>0.03251844386924808</v>
+        <v>0.04839627456961279</v>
       </c>
       <c r="T7">
-        <v>0.03251844386924808</v>
+        <v>0.04839627456961278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>5.076873</v>
       </c>
       <c r="I8">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="J8">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N8">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O8">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P8">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q8">
-        <v>0.732809387148</v>
+        <v>2.306783861883</v>
       </c>
       <c r="R8">
-        <v>6.595284484332001</v>
+        <v>20.761054756947</v>
       </c>
       <c r="S8">
-        <v>0.003319743643685736</v>
+        <v>0.01061333939239476</v>
       </c>
       <c r="T8">
-        <v>0.003319743643685736</v>
+        <v>0.01061333939239476</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>5.076873</v>
       </c>
       <c r="I9">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="J9">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>11.980769</v>
       </c>
       <c r="O9">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P9">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q9">
         <v>6.758315850593</v>
@@ -1013,10 +1013,10 @@
         <v>60.824842655337</v>
       </c>
       <c r="S9">
-        <v>0.03061625093852061</v>
+        <v>0.03109450392322132</v>
       </c>
       <c r="T9">
-        <v>0.03061625093852061</v>
+        <v>0.03109450392322132</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>5.076873</v>
       </c>
       <c r="I10">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="J10">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N10">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O10">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P10">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q10">
-        <v>8.800464322768997</v>
+        <v>5.425852737243999</v>
       </c>
       <c r="R10">
-        <v>79.20417890492098</v>
+        <v>48.83267463519599</v>
       </c>
       <c r="S10">
-        <v>0.0398675099000814</v>
+        <v>0.02496394115854338</v>
       </c>
       <c r="T10">
-        <v>0.0398675099000814</v>
+        <v>0.02496394115854337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>5.076873</v>
       </c>
       <c r="I11">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="J11">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N11">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O11">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P11">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q11">
-        <v>6.834555252434</v>
+        <v>4.679360613264</v>
       </c>
       <c r="R11">
-        <v>61.51099727190601</v>
+        <v>42.11424551937601</v>
       </c>
       <c r="S11">
-        <v>0.03096162761368177</v>
+        <v>0.02152938693070077</v>
       </c>
       <c r="T11">
-        <v>0.03096162761368177</v>
+        <v>0.02152938693070077</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>5.076873</v>
       </c>
       <c r="I12">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="J12">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N12">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O12">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P12">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q12">
-        <v>6.730103103235001</v>
+        <v>8.289801411094</v>
       </c>
       <c r="R12">
-        <v>60.57092792911501</v>
+        <v>74.60821269984601</v>
       </c>
       <c r="S12">
-        <v>0.0304884426839387</v>
+        <v>0.03814075402785008</v>
       </c>
       <c r="T12">
-        <v>0.03048844268393869</v>
+        <v>0.03814075402785008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>5.076873</v>
       </c>
       <c r="I13">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="J13">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N13">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O13">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P13">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q13">
-        <v>9.044962013673002</v>
+        <v>10.594110015341</v>
       </c>
       <c r="R13">
-        <v>81.40465812305702</v>
+        <v>95.346990138069</v>
       </c>
       <c r="S13">
-        <v>0.0409751235162679</v>
+        <v>0.04874270494566403</v>
       </c>
       <c r="T13">
-        <v>0.04097512351626789</v>
+        <v>0.04874270494566403</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5919820000000001</v>
+        <v>0.8948033333333333</v>
       </c>
       <c r="H14">
-        <v>1.775946</v>
+        <v>2.68441</v>
       </c>
       <c r="I14">
-        <v>0.06164673645062637</v>
+        <v>0.09257646047754432</v>
       </c>
       <c r="J14">
-        <v>0.06164673645062636</v>
+        <v>0.09257646047754431</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N14">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O14">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P14">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q14">
-        <v>0.256344781496</v>
+        <v>1.21971805611</v>
       </c>
       <c r="R14">
-        <v>2.307103033464001</v>
+        <v>10.97746250499</v>
       </c>
       <c r="S14">
-        <v>0.001161282830007587</v>
+        <v>0.005611831219401867</v>
       </c>
       <c r="T14">
-        <v>0.001161282830007587</v>
+        <v>0.005611831219401865</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5919820000000001</v>
+        <v>0.8948033333333333</v>
       </c>
       <c r="H15">
-        <v>1.775946</v>
+        <v>2.68441</v>
       </c>
       <c r="I15">
-        <v>0.06164673645062637</v>
+        <v>0.09257646047754432</v>
       </c>
       <c r="J15">
-        <v>0.06164673645062636</v>
+        <v>0.09257646047754431</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>11.980769</v>
       </c>
       <c r="O15">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P15">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q15">
-        <v>2.364133198052667</v>
+        <v>3.573477345698889</v>
       </c>
       <c r="R15">
-        <v>21.277198782474</v>
+        <v>32.16129611129</v>
       </c>
       <c r="S15">
-        <v>0.01070990123039555</v>
+        <v>0.01644130102851392</v>
       </c>
       <c r="T15">
-        <v>0.01070990123039555</v>
+        <v>0.01644130102851392</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5919820000000001</v>
+        <v>0.8948033333333333</v>
       </c>
       <c r="H16">
-        <v>1.775946</v>
+        <v>2.68441</v>
       </c>
       <c r="I16">
-        <v>0.06164673645062637</v>
+        <v>0.09257646047754432</v>
       </c>
       <c r="J16">
-        <v>0.06164673645062636</v>
+        <v>0.09257646047754431</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N16">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O16">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P16">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q16">
-        <v>3.078499188804666</v>
+        <v>2.868933957257777</v>
       </c>
       <c r="R16">
-        <v>27.706492699242</v>
+        <v>25.82040561532</v>
       </c>
       <c r="S16">
-        <v>0.01394609334072567</v>
+        <v>0.01319974978405121</v>
       </c>
       <c r="T16">
-        <v>0.01394609334072567</v>
+        <v>0.01319974978405121</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5919820000000001</v>
+        <v>0.8948033333333333</v>
       </c>
       <c r="H17">
-        <v>1.775946</v>
+        <v>2.68441</v>
       </c>
       <c r="I17">
-        <v>0.06164673645062637</v>
+        <v>0.09257646047754432</v>
       </c>
       <c r="J17">
-        <v>0.06164673645062636</v>
+        <v>0.09257646047754431</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N17">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O17">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P17">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q17">
-        <v>2.390802579134667</v>
+        <v>2.474224276213334</v>
       </c>
       <c r="R17">
-        <v>21.51722321221201</v>
+        <v>22.26801848592</v>
       </c>
       <c r="S17">
-        <v>0.01083071778908153</v>
+        <v>0.01138372017000277</v>
       </c>
       <c r="T17">
-        <v>0.01083071778908153</v>
+        <v>0.01138372017000276</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5919820000000001</v>
+        <v>0.8948033333333333</v>
       </c>
       <c r="H18">
-        <v>1.775946</v>
+        <v>2.68441</v>
       </c>
       <c r="I18">
-        <v>0.06164673645062637</v>
+        <v>0.09257646047754432</v>
       </c>
       <c r="J18">
-        <v>0.06164673645062636</v>
+        <v>0.09257646047754431</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N18">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O18">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P18">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q18">
-        <v>2.354264068803334</v>
+        <v>4.383254378424444</v>
       </c>
       <c r="R18">
-        <v>21.18837661923001</v>
+        <v>39.44928940582</v>
       </c>
       <c r="S18">
-        <v>0.01066519249758074</v>
+        <v>0.02016702437108453</v>
       </c>
       <c r="T18">
-        <v>0.01066519249758073</v>
+        <v>0.02016702437108453</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5919820000000001</v>
+        <v>0.8948033333333333</v>
       </c>
       <c r="H19">
-        <v>1.775946</v>
+        <v>2.68441</v>
       </c>
       <c r="I19">
-        <v>0.06164673645062637</v>
+        <v>0.09257646047754432</v>
       </c>
       <c r="J19">
-        <v>0.06164673645062636</v>
+        <v>0.09257646047754431</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N19">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O19">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P19">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q19">
-        <v>3.164027169546002</v>
+        <v>5.601663635525555</v>
       </c>
       <c r="R19">
-        <v>28.47624452591401</v>
+        <v>50.41497271973</v>
       </c>
       <c r="S19">
-        <v>0.0143335487628353</v>
+        <v>0.02577283390449002</v>
       </c>
       <c r="T19">
-        <v>0.0143335487628353</v>
+        <v>0.02577283390449002</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.491863</v>
+        <v>0.4659513333333333</v>
       </c>
       <c r="H20">
-        <v>4.475589</v>
+        <v>1.397854</v>
       </c>
       <c r="I20">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="J20">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N20">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O20">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P20">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q20">
-        <v>0.6460184511640001</v>
+        <v>0.635144319834</v>
       </c>
       <c r="R20">
-        <v>5.814166060476001</v>
+        <v>5.716298878506</v>
       </c>
       <c r="S20">
-        <v>0.002926566832477354</v>
+        <v>0.002922251339164203</v>
       </c>
       <c r="T20">
-        <v>0.002926566832477353</v>
+        <v>0.002922251339164202</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.491863</v>
+        <v>0.4659513333333333</v>
       </c>
       <c r="H21">
-        <v>4.475589</v>
+        <v>1.397854</v>
       </c>
       <c r="I21">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="J21">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>11.980769</v>
       </c>
       <c r="O21">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P21">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q21">
-        <v>5.957888660882334</v>
+        <v>1.860818429969556</v>
       </c>
       <c r="R21">
-        <v>53.62099794794101</v>
+        <v>16.747365869726</v>
       </c>
       <c r="S21">
-        <v>0.02699018784233573</v>
+        <v>0.008561485916053173</v>
       </c>
       <c r="T21">
-        <v>0.02699018784233573</v>
+        <v>0.008561485916053171</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.491863</v>
+        <v>0.4659513333333333</v>
       </c>
       <c r="H22">
-        <v>4.475589</v>
+        <v>1.397854</v>
       </c>
       <c r="I22">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="J22">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N22">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O22">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P22">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q22">
-        <v>7.758173450050332</v>
+        <v>1.493941241423111</v>
       </c>
       <c r="R22">
-        <v>69.82356105045299</v>
+        <v>13.445471172808</v>
       </c>
       <c r="S22">
-        <v>0.03514576566445436</v>
+        <v>0.006873511510773363</v>
       </c>
       <c r="T22">
-        <v>0.03514576566445436</v>
+        <v>0.006873511510773362</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.491863</v>
+        <v>0.4659513333333333</v>
       </c>
       <c r="H23">
-        <v>4.475589</v>
+        <v>1.397854</v>
       </c>
       <c r="I23">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="J23">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N23">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O23">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P23">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q23">
-        <v>6.025098580895334</v>
+        <v>1.288403895605334</v>
       </c>
       <c r="R23">
-        <v>54.22588722805801</v>
+        <v>11.595635060448</v>
       </c>
       <c r="S23">
-        <v>0.02729465952169581</v>
+        <v>0.005927849611094821</v>
       </c>
       <c r="T23">
-        <v>0.02729465952169581</v>
+        <v>0.00592784961109482</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.491863</v>
+        <v>0.4659513333333333</v>
       </c>
       <c r="H24">
-        <v>4.475589</v>
+        <v>1.397854</v>
       </c>
       <c r="I24">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="J24">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N24">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O24">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P24">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q24">
-        <v>5.933017315521668</v>
+        <v>2.282493980389778</v>
       </c>
       <c r="R24">
-        <v>53.39715583969501</v>
+        <v>20.542445823508</v>
       </c>
       <c r="S24">
-        <v>0.02687751667283513</v>
+        <v>0.010501583470937</v>
       </c>
       <c r="T24">
-        <v>0.02687751667283513</v>
+        <v>0.010501583470937</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.491863</v>
+        <v>0.4659513333333333</v>
       </c>
       <c r="H25">
-        <v>4.475589</v>
+        <v>1.397854</v>
       </c>
       <c r="I25">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="J25">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N25">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O25">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P25">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q25">
-        <v>7.973713837989004</v>
+        <v>2.916956768740222</v>
       </c>
       <c r="R25">
-        <v>71.76342454190102</v>
+        <v>26.252610918662</v>
       </c>
       <c r="S25">
-        <v>0.0361221980701605</v>
+        <v>0.01342069913490376</v>
       </c>
       <c r="T25">
-        <v>0.0361221980701605</v>
+        <v>0.01342069913490376</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.818578333333333</v>
+        <v>3.720472333333333</v>
       </c>
       <c r="H26">
-        <v>8.455735000000001</v>
+        <v>11.161417</v>
       </c>
       <c r="I26">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382734</v>
       </c>
       <c r="J26">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382733</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N26">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O26">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P26">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q26">
-        <v>1.220523338526667</v>
+        <v>5.071424203707</v>
       </c>
       <c r="R26">
-        <v>10.98471004674</v>
+        <v>45.642817833363</v>
       </c>
       <c r="S26">
-        <v>0.005529165791411565</v>
+        <v>0.02333324208051778</v>
       </c>
       <c r="T26">
-        <v>0.005529165791411565</v>
+        <v>0.02333324208051777</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.818578333333333</v>
+        <v>3.720472333333333</v>
       </c>
       <c r="H27">
-        <v>8.455735000000001</v>
+        <v>11.161417</v>
       </c>
       <c r="I27">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382734</v>
       </c>
       <c r="J27">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382733</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>11.980769</v>
       </c>
       <c r="O27">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P27">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q27">
-        <v>11.25624530669056</v>
+        <v>14.85803986551922</v>
       </c>
       <c r="R27">
-        <v>101.306207760215</v>
+        <v>133.722358789673</v>
       </c>
       <c r="S27">
-        <v>0.05099259024790093</v>
+        <v>0.06836072611924884</v>
       </c>
       <c r="T27">
-        <v>0.05099259024790094</v>
+        <v>0.06836072611924882</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.818578333333333</v>
+        <v>3.720472333333333</v>
       </c>
       <c r="H28">
-        <v>8.455735000000001</v>
+        <v>11.161417</v>
       </c>
       <c r="I28">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382734</v>
       </c>
       <c r="J28">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382733</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N28">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O28">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P28">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q28">
-        <v>14.65752525034389</v>
+        <v>11.92864288332044</v>
       </c>
       <c r="R28">
-        <v>131.917727253095</v>
+        <v>107.357785949884</v>
       </c>
       <c r="S28">
-        <v>0.06640093199592835</v>
+        <v>0.05488279049603285</v>
       </c>
       <c r="T28">
-        <v>0.06640093199592836</v>
+        <v>0.05488279049603283</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.818578333333333</v>
+        <v>3.720472333333333</v>
       </c>
       <c r="H29">
-        <v>8.455735000000001</v>
+        <v>11.161417</v>
       </c>
       <c r="I29">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382734</v>
       </c>
       <c r="J29">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382733</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N29">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O29">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P29">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q29">
-        <v>11.38322507918556</v>
+        <v>10.28749293078934</v>
       </c>
       <c r="R29">
-        <v>102.44902571267</v>
+        <v>92.58743637710401</v>
       </c>
       <c r="S29">
-        <v>0.05156782891161063</v>
+        <v>0.04733198275550746</v>
       </c>
       <c r="T29">
-        <v>0.05156782891161064</v>
+        <v>0.04733198275550745</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.818578333333333</v>
+        <v>3.720472333333333</v>
       </c>
       <c r="H30">
-        <v>8.455735000000001</v>
+        <v>11.161417</v>
       </c>
       <c r="I30">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382734</v>
       </c>
       <c r="J30">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382733</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N30">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O30">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P30">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q30">
-        <v>11.20925584776945</v>
+        <v>18.22498423663711</v>
       </c>
       <c r="R30">
-        <v>100.883302629925</v>
+        <v>164.024858129734</v>
       </c>
       <c r="S30">
-        <v>0.05077972048898492</v>
+        <v>0.08385178443488038</v>
       </c>
       <c r="T30">
-        <v>0.05077972048898492</v>
+        <v>0.08385178443488037</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.818578333333333</v>
+        <v>3.720472333333333</v>
       </c>
       <c r="H31">
-        <v>8.455735000000001</v>
+        <v>11.161417</v>
       </c>
       <c r="I31">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382734</v>
       </c>
       <c r="J31">
-        <v>0.293515944201759</v>
+        <v>0.3849205150382733</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N31">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O31">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P31">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q31">
-        <v>15.064745931735</v>
+        <v>23.29096662947789</v>
       </c>
       <c r="R31">
-        <v>135.5827133856151</v>
+        <v>209.618699665301</v>
       </c>
       <c r="S31">
-        <v>0.06824570676592255</v>
+        <v>0.1071599891520861</v>
       </c>
       <c r="T31">
-        <v>0.06824570676592255</v>
+        <v>0.107159989152086</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.665071</v>
+        <v>1.211778666666667</v>
       </c>
       <c r="H32">
-        <v>4.995213</v>
+        <v>3.635336</v>
       </c>
       <c r="I32">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="J32">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N32">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O32">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P32">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q32">
-        <v>0.721022364988</v>
+        <v>1.651791253656</v>
       </c>
       <c r="R32">
-        <v>6.489201284892</v>
+        <v>14.866121282904</v>
       </c>
       <c r="S32">
-        <v>0.003266346549461914</v>
+        <v>0.007599767568223746</v>
       </c>
       <c r="T32">
-        <v>0.003266346549461914</v>
+        <v>0.007599767568223744</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.665071</v>
+        <v>1.211778666666667</v>
       </c>
       <c r="H33">
-        <v>4.995213</v>
+        <v>3.635336</v>
       </c>
       <c r="I33">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="J33">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>11.980769</v>
       </c>
       <c r="O33">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P33">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q33">
-        <v>6.649610339866333</v>
+        <v>4.839346761487112</v>
       </c>
       <c r="R33">
-        <v>59.846493058797</v>
+        <v>43.55412085338401</v>
       </c>
       <c r="S33">
-        <v>0.03012379760127156</v>
+        <v>0.02226547118949553</v>
       </c>
       <c r="T33">
-        <v>0.03012379760127156</v>
+        <v>0.02226547118949552</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.665071</v>
+        <v>1.211778666666667</v>
       </c>
       <c r="H34">
-        <v>4.995213</v>
+        <v>3.635336</v>
       </c>
       <c r="I34">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="J34">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N34">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O34">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P34">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q34">
-        <v>8.658911458122331</v>
+        <v>3.885225765230222</v>
       </c>
       <c r="R34">
-        <v>77.93020312310098</v>
+        <v>34.967031887072</v>
       </c>
       <c r="S34">
-        <v>0.03922625279980714</v>
+        <v>0.01787563210573407</v>
       </c>
       <c r="T34">
-        <v>0.03922625279980714</v>
+        <v>0.01787563210573407</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.665071</v>
+        <v>1.211778666666667</v>
       </c>
       <c r="H35">
-        <v>4.995213</v>
+        <v>3.635336</v>
       </c>
       <c r="I35">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="J35">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N35">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O35">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P35">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q35">
-        <v>6.724623453487333</v>
+        <v>3.350694038314668</v>
       </c>
       <c r="R35">
-        <v>60.52161108138601</v>
+        <v>30.15624634483201</v>
       </c>
       <c r="S35">
-        <v>0.03046361899480687</v>
+        <v>0.01541629175421682</v>
       </c>
       <c r="T35">
-        <v>0.03046361899480687</v>
+        <v>0.01541629175421682</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.665071</v>
+        <v>1.211778666666667</v>
       </c>
       <c r="H36">
-        <v>4.995213</v>
+        <v>3.635336</v>
       </c>
       <c r="I36">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="J36">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N36">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O36">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P36">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q36">
-        <v>6.621851386201667</v>
+        <v>5.935979391763556</v>
       </c>
       <c r="R36">
-        <v>59.596662475815</v>
+        <v>53.423814525872</v>
       </c>
       <c r="S36">
-        <v>0.02999804510464718</v>
+        <v>0.02731099560390587</v>
       </c>
       <c r="T36">
-        <v>0.02999804510464718</v>
+        <v>0.02731099560390587</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.665071</v>
+        <v>1.211778666666667</v>
       </c>
       <c r="H37">
-        <v>4.995213</v>
+        <v>3.635336</v>
       </c>
       <c r="I37">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="J37">
-        <v>0.1733941118287057</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N37">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O37">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P37">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q37">
-        <v>8.899476476013003</v>
+        <v>7.585998217156445</v>
       </c>
       <c r="R37">
-        <v>80.09528828411702</v>
+        <v>68.27398395440801</v>
       </c>
       <c r="S37">
-        <v>0.04031605077871105</v>
+        <v>0.03490260836273638</v>
       </c>
       <c r="T37">
-        <v>0.04031605077871105</v>
+        <v>0.03490260836273637</v>
       </c>
     </row>
   </sheetData>
